--- a/biology/Botanique/Noctuelle_du_pois/Noctuelle_du_pois.xlsx
+++ b/biology/Botanique/Noctuelle_du_pois/Noctuelle_du_pois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceramica pisi
 La noctuelle du pois (Ceramica pisi ; syn. : Melanchra pisi) est un insecte de l'ordre des lépidoptères, de la famille des noctuidés. C'est un petit papillon nocturne dont la chenille est un ravageur de diverses plantes sauvages et cultivées dont le pois.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insecte adulte
-Papillon nocturne brunâtre.
-Larve
-La larve est une chenille de couleurs variables : verte, brun rouge ou brun pourpre foncé avec deux bandes latéro-dorsales jaunes à bords noirs (photo)[1].
+          <t>Insecte adulte</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papillon nocturne brunâtre.
 </t>
         </is>
       </c>
@@ -543,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Larve</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La larve est une chenille de couleurs variables : verte, brun rouge ou brun pourpre foncé avec deux bandes latéro-dorsales jaunes à bords noirs (photo).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Noctuelle_du_pois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Noctuelle_du_pois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Piégeage des adultes ;
 Destruction des œufs ;
